--- a/reports/CarDetails.xlsx
+++ b/reports/CarDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2355162_cognizant_com/Documents/Desktop/Hackathon/CarWashingServices/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_593DEDB143D29CE2AE2B53EEA2777AFD7FB887B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8553F65-B8DA-4B58-8897-5F7E172F1820}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_593DEDB143D29CE2AE2B53EEA2777AFD7FB887B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A8CE755-819B-4DE0-BD3E-5852EB3E88E0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="187">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +43,72 @@
     <t>809</t>
   </si>
   <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>07942684199</t>
+  </si>
+  <si>
+    <t>Express Shiine</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>07947150480</t>
+  </si>
+  <si>
+    <t>DPlus Car Care</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>07942684238</t>
+  </si>
+  <si>
+    <t>Go Waterless Car Wash @ Doorstep</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>07947150287</t>
+  </si>
+  <si>
+    <t>Covai Tyres</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>07383614773</t>
+  </si>
+  <si>
+    <t>07942684127</t>
+  </si>
+  <si>
+    <t>07947115727</t>
+  </si>
+  <si>
+    <t>07947139324</t>
+  </si>
+  <si>
+    <t>07947115693</t>
+  </si>
+  <si>
+    <t>07947115484</t>
+  </si>
+  <si>
+    <t>07947430642</t>
+  </si>
+  <si>
     <t>The Joker Customs</t>
   </si>
   <si>
@@ -52,9 +118,15 @@
     <t>117</t>
   </si>
   <si>
+    <t>07947431004</t>
+  </si>
+  <si>
     <t>THE JOKER CUSTOMS</t>
   </si>
   <si>
+    <t>07947425755</t>
+  </si>
+  <si>
     <t>Protouch Auto Detailers</t>
   </si>
   <si>
@@ -70,55 +142,445 @@
     <t>90S Carwash &amp; Detailing</t>
   </si>
   <si>
-    <t>4.9</t>
-  </si>
-  <si>
     <t>86</t>
   </si>
   <si>
-    <t>07947420872</t>
-  </si>
-  <si>
-    <t>07947420538</t>
-  </si>
-  <si>
-    <t>07947427399</t>
-  </si>
-  <si>
-    <t>07947426964</t>
-  </si>
-  <si>
-    <t>07947420889</t>
-  </si>
-  <si>
-    <t>07947427935</t>
-  </si>
-  <si>
-    <t>07947421520</t>
-  </si>
-  <si>
-    <t>07947428068</t>
-  </si>
-  <si>
-    <t>07947430985</t>
-  </si>
-  <si>
-    <t>07947420682</t>
-  </si>
-  <si>
-    <t>07947149830</t>
-  </si>
-  <si>
-    <t>07947422794</t>
-  </si>
-  <si>
-    <t>07947421778</t>
-  </si>
-  <si>
-    <t>07947423138</t>
-  </si>
-  <si>
-    <t>07947427327</t>
+    <t>07947122718</t>
+  </si>
+  <si>
+    <t>07947430972</t>
+  </si>
+  <si>
+    <t>07947426234</t>
+  </si>
+  <si>
+    <t>07947430950</t>
+  </si>
+  <si>
+    <t>07947120013</t>
+  </si>
+  <si>
+    <t>07947433517</t>
+  </si>
+  <si>
+    <t>07947432871</t>
+  </si>
+  <si>
+    <t>07947433498</t>
+  </si>
+  <si>
+    <t>07947433273</t>
+  </si>
+  <si>
+    <t>07947144016</t>
+  </si>
+  <si>
+    <t>07947144026</t>
+  </si>
+  <si>
+    <t>07947436129</t>
+  </si>
+  <si>
+    <t>07947144261</t>
+  </si>
+  <si>
+    <t>Premji Motors Pvt Ltd</t>
+  </si>
+  <si>
+    <t>12,526</t>
+  </si>
+  <si>
+    <t>07947150445</t>
+  </si>
+  <si>
+    <t>Gomechanic</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>07947107328</t>
+  </si>
+  <si>
+    <t>Greenglobe Autotech Pvt Ltd</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>2,270</t>
+  </si>
+  <si>
+    <t>07947436015</t>
+  </si>
+  <si>
+    <t>Wow My Car - Doorstep Car Wash Service</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>07947436223</t>
+  </si>
+  <si>
+    <t>3M Car Care</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>1,012</t>
+  </si>
+  <si>
+    <t>07947143985</t>
+  </si>
+  <si>
+    <t>07947151733</t>
+  </si>
+  <si>
+    <t>07947107710</t>
+  </si>
+  <si>
+    <t>07947107222</t>
+  </si>
+  <si>
+    <t>07947107728</t>
+  </si>
+  <si>
+    <t>07947104784</t>
+  </si>
+  <si>
+    <t>07947104255</t>
+  </si>
+  <si>
+    <t>07947104559</t>
+  </si>
+  <si>
+    <t>07947104528</t>
+  </si>
+  <si>
+    <t>07947104989</t>
+  </si>
+  <si>
+    <t>07947104681</t>
+  </si>
+  <si>
+    <t>07947105140</t>
+  </si>
+  <si>
+    <t>07942681022</t>
+  </si>
+  <si>
+    <t>07947113672</t>
+  </si>
+  <si>
+    <t>07947105255</t>
+  </si>
+  <si>
+    <t>07947105449</t>
+  </si>
+  <si>
+    <t>07947105698</t>
+  </si>
+  <si>
+    <t>07947105291</t>
+  </si>
+  <si>
+    <t>07942689379</t>
+  </si>
+  <si>
+    <t>07947105790</t>
+  </si>
+  <si>
+    <t>07947105519</t>
+  </si>
+  <si>
+    <t>07942689577</t>
+  </si>
+  <si>
+    <t>07947105995</t>
+  </si>
+  <si>
+    <t>07942689695</t>
+  </si>
+  <si>
+    <t>07942689520</t>
+  </si>
+  <si>
+    <t>07942689951</t>
+  </si>
+  <si>
+    <t>07942689380</t>
+  </si>
+  <si>
+    <t>07942689556</t>
+  </si>
+  <si>
+    <t>07942681374</t>
+  </si>
+  <si>
+    <t>07942689620</t>
+  </si>
+  <si>
+    <t>07947143717</t>
+  </si>
+  <si>
+    <t>07947132746</t>
+  </si>
+  <si>
+    <t>07947106854</t>
+  </si>
+  <si>
+    <t>07947107330</t>
+  </si>
+  <si>
+    <t>07947143844</t>
+  </si>
+  <si>
+    <t>07942689664</t>
+  </si>
+  <si>
+    <t>07947105543</t>
+  </si>
+  <si>
+    <t>07942681450</t>
+  </si>
+  <si>
+    <t>07947105797</t>
+  </si>
+  <si>
+    <t>07947106334</t>
+  </si>
+  <si>
+    <t>07947111886</t>
+  </si>
+  <si>
+    <t>07947111905</t>
+  </si>
+  <si>
+    <t>07947422973</t>
+  </si>
+  <si>
+    <t>07947422282</t>
+  </si>
+  <si>
+    <t>07947421999</t>
+  </si>
+  <si>
+    <t>07947432531</t>
+  </si>
+  <si>
+    <t>07947432281</t>
+  </si>
+  <si>
+    <t>07947432394</t>
+  </si>
+  <si>
+    <t>07947432030</t>
+  </si>
+  <si>
+    <t>07947125495</t>
+  </si>
+  <si>
+    <t>07947109041</t>
+  </si>
+  <si>
+    <t>07947108653</t>
+  </si>
+  <si>
+    <t>07947109067</t>
+  </si>
+  <si>
+    <t>07947109830</t>
+  </si>
+  <si>
+    <t>07947109362</t>
+  </si>
+  <si>
+    <t>07947106215</t>
+  </si>
+  <si>
+    <t>07947107133</t>
+  </si>
+  <si>
+    <t>07947110126</t>
+  </si>
+  <si>
+    <t>07947107176</t>
+  </si>
+  <si>
+    <t>07947103074</t>
+  </si>
+  <si>
+    <t>07947419918</t>
+  </si>
+  <si>
+    <t>07947419842</t>
+  </si>
+  <si>
+    <t>07947419617</t>
+  </si>
+  <si>
+    <t>07947419796</t>
+  </si>
+  <si>
+    <t>07947420223</t>
+  </si>
+  <si>
+    <t>07947147863</t>
+  </si>
+  <si>
+    <t>07942683157</t>
+  </si>
+  <si>
+    <t>07947148056</t>
+  </si>
+  <si>
+    <t>07942683124</t>
+  </si>
+  <si>
+    <t>07942683396</t>
+  </si>
+  <si>
+    <t>07947149573</t>
+  </si>
+  <si>
+    <t>07942683949</t>
+  </si>
+  <si>
+    <t>07947134002</t>
+  </si>
+  <si>
+    <t>07942683794</t>
+  </si>
+  <si>
+    <t>07942684092</t>
+  </si>
+  <si>
+    <t>07942684356</t>
+  </si>
+  <si>
+    <t>07942684252</t>
+  </si>
+  <si>
+    <t>07947150726</t>
+  </si>
+  <si>
+    <t>07947150440</t>
+  </si>
+  <si>
+    <t>07942684444</t>
+  </si>
+  <si>
+    <t>07947152755</t>
+  </si>
+  <si>
+    <t>07947152369</t>
+  </si>
+  <si>
+    <t>07947429823</t>
+  </si>
+  <si>
+    <t>07947137518</t>
+  </si>
+  <si>
+    <t>07947137939</t>
+  </si>
+  <si>
+    <t>5k Network</t>
+  </si>
+  <si>
+    <t>5,258</t>
+  </si>
+  <si>
+    <t>07411822389</t>
+  </si>
+  <si>
+    <t>07947113824</t>
+  </si>
+  <si>
+    <t>07947113446</t>
+  </si>
+  <si>
+    <t>07947114306</t>
+  </si>
+  <si>
+    <t>07947113913</t>
+  </si>
+  <si>
+    <t>07947113970</t>
+  </si>
+  <si>
+    <t>07947128537</t>
+  </si>
+  <si>
+    <t>07947127734</t>
+  </si>
+  <si>
+    <t>07947127910</t>
+  </si>
+  <si>
+    <t>07947128809</t>
+  </si>
+  <si>
+    <t>07947128658</t>
+  </si>
+  <si>
+    <t>07947149483</t>
+  </si>
+  <si>
+    <t>07947144303</t>
+  </si>
+  <si>
+    <t>07947144030</t>
+  </si>
+  <si>
+    <t>07947128489</t>
+  </si>
+  <si>
+    <t>07947150415</t>
+  </si>
+  <si>
+    <t>07947119005</t>
+  </si>
+  <si>
+    <t>Dplus Car Care</t>
+  </si>
+  <si>
+    <t>07947118754</t>
+  </si>
+  <si>
+    <t>07947118653</t>
+  </si>
+  <si>
+    <t>5K Car Care</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>07947419304</t>
+  </si>
+  <si>
+    <t>Show Number</t>
+  </si>
+  <si>
+    <t>07942689053</t>
+  </si>
+  <si>
+    <t>07942688342</t>
+  </si>
+  <si>
+    <t>07947116684</t>
+  </si>
+  <si>
+    <t>07942688672</t>
+  </si>
+  <si>
+    <t>07942688740</t>
   </si>
 </sst>
 </file>
@@ -499,7 +961,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.1796875"/>
+    <col min="1" max="1" customWidth="true" width="28.54296875"/>
     <col min="2" max="2" customWidth="true" width="13.26953125"/>
     <col min="3" max="3" customWidth="true" width="17.0"/>
     <col min="4" max="4" customWidth="true" width="20.90625"/>
@@ -530,63 +992,63 @@
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>29</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>30</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>31</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>13</v>
-      </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>17</v>
-      </c>
       <c r="D6" t="s" s="0">
-        <v>32</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
